--- a/src/main/webapp/excels/accumulated_reserves_list.xlsx
+++ b/src/main/webapp/excels/accumulated_reserves_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangyoonkang/workspace/fx-lounge/src/main/webapp/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ams\fx-lounge\src\main\webapp\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A681EFB-69DB-2644-9EC0-573837AADAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3357F97-43B2-4A91-BF98-E58982400F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37780" yWindow="1860" windowWidth="24560" windowHeight="24180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자별 보유금_누적 입금_누적 출금_20200506" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>누적 출금</t>
   </si>
@@ -60,12 +60,20 @@
     <t>누적 입금</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>${list.gradeName}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등급</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,20 +1058,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="5" width="18.83203125" customWidth="1"/>
+    <col min="3" max="6" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1079,8 +1087,11 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickTop="1">
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1096,6 +1107,9 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
